--- a/evaluacion-y-aprendizaje/TAR._Trabajo_Final_TALLER_DE_EVALUACION_Y_APRENDIZAJE_1_1.xlsx
+++ b/evaluacion-y-aprendizaje/TAR._Trabajo_Final_TALLER_DE_EVALUACION_Y_APRENDIZAJE_1_1.xlsx
@@ -1,92 +1,97 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="TAR" sheetId="1" r:id="rId4"/>
+    <sheet name="TAR" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>Talller de Evaluación y Aprendizaje</t>
-  </si>
-  <si>
-    <t>Trabajo Final</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t xml:space="preserve">Talller de Evaluación y Aprendizaje</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trabajo Final</t>
   </si>
   <si>
     <t>Ponderación</t>
   </si>
   <si>
-    <t>PARTE II</t>
-  </si>
-  <si>
-    <t>Fundamentación de la evaluación</t>
-  </si>
-  <si>
-    <t>Defininción de contenidos y criterios</t>
-  </si>
-  <si>
-    <t>Descripción del instrumento</t>
-  </si>
-  <si>
-    <t>Explicitación del modo de valoración de las producciones de estudiantes</t>
-  </si>
-  <si>
-    <t>Descripción del formato de comunicación de los resultados</t>
-  </si>
-  <si>
-    <t>Coherencia de la fundamentacon elaborada</t>
+    <t xml:space="preserve">PARTE II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fundamentación de la evaluación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defininción de contenidos y criterios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descripción del instrumento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explicitación del modo de valoración de las producciones de estudiantes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descripción del formato de comunicación de los resultados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coherencia de la fundamentacon elaborada</t>
   </si>
   <si>
     <t>Bibliografía</t>
   </si>
   <si>
-    <t>Aprobación 60 % = 40</t>
+    <t xml:space="preserve">Aprobación 60 % = 40</t>
   </si>
   <si>
     <t>PUNTAJES:</t>
   </si>
   <si>
-    <t>40 a 44: 4</t>
-  </si>
-  <si>
-    <t>45 a 49: 5</t>
-  </si>
-  <si>
-    <t>50 a 54: 6</t>
-  </si>
-  <si>
-    <t>55 a 60: 7</t>
-  </si>
-  <si>
-    <t>61 a 64: 8</t>
-  </si>
-  <si>
-    <t>65 a 67: 9</t>
-  </si>
-  <si>
-    <t>68 a 70 :10</t>
+    <t xml:space="preserve">40 a 44: 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45 a 49: 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 a 54: 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55 a 60: 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61 a 64: 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65 a 67: 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68 a 70 :10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tabla de analisis de resultados</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11">
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
+      <sz val="10.000000"/>
+      <color indexed="64"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -98,7 +103,7 @@
     </font>
     <font>
       <b/>
-      <color rgb="FF000000"/>
+      <color indexed="64"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -113,18 +118,23 @@
       <name val="Arial"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
+      <color indexed="64"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="8.0"/>
-      <color rgb="FF000000"/>
+      <b/>
+      <color theme="1"/>
+      <name val="MathJax_Fraktur"/>
+    </font>
+    <font>
+      <sz val="8.000000"/>
+      <color indexed="64"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -133,7 +143,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -149,215 +159,514 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor indexed="5"/>
+        <bgColor indexed="5"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="15">
-    <border/>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
+      <right style="none"/>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
+      <right style="none"/>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
-    </border>
-    <border>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
-    </border>
-    <border>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
-    </border>
-    <border>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
+      <right style="none"/>
+      <top style="none"/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
+      <top style="none"/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="30">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="31">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="2" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="2" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="3" fillId="3" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="4" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="5" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="3" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="6" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="7" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="5" fillId="4" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="5" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="8" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="7" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="9" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="10" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf fontId="3" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="10" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf fontId="9" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="1" fillId="2" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="2" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="2" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="2" fillId="0" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="8" fillId="0" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="2" fillId="0" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="8" fillId="0" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="2" fillId="0" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="2" fillId="0" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -414,7 +723,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -440,7 +749,7 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -492,16 +801,28 @@
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -517,7 +838,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -547,28 +868,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr applyStyles="0" summaryBelow="0" summaryRight="0" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.630000000000001" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="57.13"/>
-    <col customWidth="1" min="2" max="2" width="3.0"/>
-    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="1" max="1" width="57.130000000000003"/>
+    <col customWidth="1" min="2" max="2" width="3"/>
+    <col customWidth="1" min="3" max="3" width="3.57421875"/>
     <col customWidth="1" min="4" max="5" width="7.75"/>
-    <col customWidth="1" min="6" max="7" width="9.13"/>
-    <col customWidth="1" min="8" max="10" width="10.38"/>
+    <col customWidth="1" min="6" max="7" width="9.1300000000000008"/>
+    <col customWidth="1" min="8" max="10" width="10.380000000000001"/>
     <col customWidth="1" min="11" max="11" width="9.5"/>
-    <col customWidth="1" min="12" max="13" width="8.13"/>
-    <col customWidth="1" min="14" max="15" width="9.63"/>
+    <col customWidth="1" min="12" max="13" width="8.1300000000000008"/>
+    <col customWidth="1" min="14" max="15" width="9.6300000000000008"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -641,22 +966,26 @@
         <v>4</v>
       </c>
       <c r="B4" s="14">
-        <v>15.0</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="15"/>
+        <v>15</v>
+      </c>
+      <c r="C4" s="15">
+        <v>12</v>
+      </c>
+      <c r="D4" s="16">
+        <v>7</v>
+      </c>
       <c r="E4" s="11"/>
-      <c r="F4" s="15"/>
+      <c r="F4" s="16"/>
       <c r="G4" s="11"/>
-      <c r="H4" s="16"/>
+      <c r="H4" s="17"/>
       <c r="I4" s="11"/>
-      <c r="J4" s="15"/>
+      <c r="J4" s="16"/>
       <c r="K4" s="11"/>
-      <c r="L4" s="15"/>
+      <c r="L4" s="16"/>
       <c r="M4" s="11"/>
-      <c r="N4" s="15"/>
+      <c r="N4" s="16"/>
       <c r="O4" s="11"/>
-      <c r="P4" s="15"/>
+      <c r="P4" s="16"/>
       <c r="Q4" s="7"/>
     </row>
     <row r="5">
@@ -664,22 +993,26 @@
         <v>5</v>
       </c>
       <c r="B5" s="14">
-        <v>8.0</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="15"/>
+        <v>8</v>
+      </c>
+      <c r="C5" s="15">
+        <v>5</v>
+      </c>
+      <c r="D5" s="16">
+        <v>6</v>
+      </c>
       <c r="E5" s="11"/>
-      <c r="F5" s="15"/>
+      <c r="F5" s="16"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="16"/>
+      <c r="H5" s="17"/>
       <c r="I5" s="11"/>
-      <c r="J5" s="15"/>
+      <c r="J5" s="16"/>
       <c r="K5" s="11"/>
-      <c r="L5" s="15"/>
+      <c r="L5" s="16"/>
       <c r="M5" s="11"/>
-      <c r="N5" s="15"/>
+      <c r="N5" s="16"/>
       <c r="O5" s="11"/>
-      <c r="P5" s="15"/>
+      <c r="P5" s="16"/>
       <c r="Q5" s="7"/>
     </row>
     <row r="6">
@@ -687,45 +1020,51 @@
         <v>6</v>
       </c>
       <c r="B6" s="14">
-        <v>17.0</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="15"/>
+        <v>17</v>
+      </c>
+      <c r="C6" s="15">
+        <v>13</v>
+      </c>
+      <c r="D6" s="16"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="15"/>
+      <c r="F6" s="16"/>
       <c r="G6" s="11"/>
-      <c r="H6" s="16"/>
+      <c r="H6" s="17"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="15"/>
+      <c r="J6" s="16"/>
       <c r="K6" s="11"/>
-      <c r="L6" s="15"/>
+      <c r="L6" s="16"/>
       <c r="M6" s="11"/>
-      <c r="N6" s="15"/>
+      <c r="N6" s="16"/>
       <c r="O6" s="11"/>
-      <c r="P6" s="15"/>
+      <c r="P6" s="16"/>
       <c r="Q6" s="7"/>
     </row>
     <row r="7">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="14">
-        <v>8.0</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="15"/>
+        <v>8</v>
+      </c>
+      <c r="C7" s="15">
+        <v>5</v>
+      </c>
+      <c r="D7" s="16">
+        <v>8</v>
+      </c>
       <c r="E7" s="11"/>
-      <c r="F7" s="15"/>
+      <c r="F7" s="16"/>
       <c r="G7" s="11"/>
-      <c r="H7" s="16"/>
+      <c r="H7" s="17"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="15"/>
+      <c r="J7" s="16"/>
       <c r="K7" s="11"/>
-      <c r="L7" s="15"/>
+      <c r="L7" s="16"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="15"/>
+      <c r="N7" s="16"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="15"/>
+      <c r="P7" s="16"/>
       <c r="Q7" s="7"/>
     </row>
     <row r="8">
@@ -733,22 +1072,24 @@
         <v>8</v>
       </c>
       <c r="B8" s="14">
-        <v>8.0</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="15"/>
+        <v>8</v>
+      </c>
+      <c r="C8" s="15">
+        <v>5</v>
+      </c>
+      <c r="D8" s="16"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="15"/>
+      <c r="F8" s="16"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="16"/>
+      <c r="H8" s="17"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="15"/>
+      <c r="J8" s="16"/>
       <c r="K8" s="11"/>
-      <c r="L8" s="15"/>
+      <c r="L8" s="16"/>
       <c r="M8" s="11"/>
-      <c r="N8" s="15"/>
+      <c r="N8" s="16"/>
       <c r="O8" s="11"/>
-      <c r="P8" s="15"/>
+      <c r="P8" s="16"/>
       <c r="Q8" s="7"/>
     </row>
     <row r="9">
@@ -756,45 +1097,49 @@
         <v>9</v>
       </c>
       <c r="B9" s="14">
-        <v>12.0</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="C9" s="15">
+        <v>8</v>
+      </c>
+      <c r="D9" s="16"/>
       <c r="E9" s="11"/>
-      <c r="F9" s="15"/>
+      <c r="F9" s="16"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="16"/>
+      <c r="H9" s="17"/>
       <c r="I9" s="11"/>
-      <c r="J9" s="15"/>
+      <c r="J9" s="16"/>
       <c r="K9" s="11"/>
-      <c r="L9" s="15"/>
+      <c r="L9" s="16"/>
       <c r="M9" s="11"/>
-      <c r="N9" s="15"/>
+      <c r="N9" s="16"/>
       <c r="O9" s="11"/>
-      <c r="P9" s="15"/>
+      <c r="P9" s="16"/>
       <c r="Q9" s="7"/>
     </row>
     <row r="10">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="18">
-        <v>2.0</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="15"/>
+        <v>2</v>
+      </c>
+      <c r="C10" s="15">
+        <v>2</v>
+      </c>
+      <c r="D10" s="16"/>
       <c r="E10" s="19"/>
       <c r="F10" s="20"/>
       <c r="G10" s="11"/>
-      <c r="H10" s="16"/>
+      <c r="H10" s="17"/>
       <c r="I10" s="11"/>
-      <c r="J10" s="15"/>
+      <c r="J10" s="16"/>
       <c r="K10" s="11"/>
-      <c r="L10" s="15"/>
+      <c r="L10" s="16"/>
       <c r="M10" s="11"/>
-      <c r="N10" s="15"/>
+      <c r="N10" s="16"/>
       <c r="O10" s="11"/>
-      <c r="P10" s="15"/>
+      <c r="P10" s="16"/>
       <c r="Q10" s="7"/>
     </row>
     <row r="11">
@@ -803,135 +1148,139 @@
         <f>SUM(B4:B10)</f>
         <v>70</v>
       </c>
-      <c r="C11" s="6"/>
+      <c r="C11" s="21">
+        <f>SUM(C4:C10)</f>
+        <v>50</v>
+      </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="16"/>
+      <c r="H11" s="17"/>
       <c r="I11" s="6"/>
       <c r="J11" s="7"/>
       <c r="K11" s="6"/>
       <c r="L11" s="7"/>
       <c r="M11" s="6"/>
-      <c r="N11" s="16"/>
+      <c r="N11" s="17"/>
       <c r="O11" s="6"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
     </row>
     <row r="12">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
     </row>
     <row r="13">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="24"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="25"/>
     </row>
     <row r="14">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="Q14" s="26"/>
+      <c r="Q14" s="27"/>
     </row>
     <row r="15">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="Q15" s="26"/>
+      <c r="Q15" s="27"/>
     </row>
     <row r="16">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="Q16" s="26"/>
+      <c r="Q16" s="27"/>
     </row>
     <row r="17">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="Q17" s="26"/>
+      <c r="Q17" s="27"/>
     </row>
     <row r="18">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="Q18" s="26"/>
+      <c r="Q18" s="27"/>
     </row>
     <row r="19">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="Q19" s="26"/>
+      <c r="Q19" s="27"/>
     </row>
     <row r="20">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="Q20" s="26"/>
+      <c r="Q20" s="27"/>
     </row>
     <row r="21">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="Q21" s="26"/>
+      <c r="Q21" s="27"/>
     </row>
     <row r="22">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="30"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A19:Q19"/>
-    <mergeCell ref="A20:Q20"/>
-    <mergeCell ref="A21:Q21"/>
-    <mergeCell ref="A22:Q22"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A13:Q13"/>
     <mergeCell ref="A14:Q14"/>
@@ -939,7 +1288,14 @@
     <mergeCell ref="A16:Q16"/>
     <mergeCell ref="A17:Q17"/>
     <mergeCell ref="A18:Q18"/>
+    <mergeCell ref="A19:Q19"/>
+    <mergeCell ref="A20:Q20"/>
+    <mergeCell ref="A21:Q21"/>
+    <mergeCell ref="A22:Q22"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>